--- a/xls/TABLE_技能.xlsx
+++ b/xls/TABLE_技能.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="360" yWindow="100" windowWidth="28040" windowHeight="11660"/>
   </bookViews>
   <sheets>
-    <sheet name="output_Skill" sheetId="2" r:id="rId1"/>
+    <sheet name="output_HeroSkill" sheetId="2" r:id="rId1"/>
     <sheet name="TABLE_技能" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="1250">
   <si>
     <t>唯一标识</t>
   </si>
@@ -3728,10 +3728,38 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>i</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>i</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3752,15 +3780,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
+    <t>af</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -3772,30 +3792,6 @@
   </si>
   <si>
     <t>18,20,0.4,23,25,0.2,28,30,0.1,33,36,0.1,46,49,0.1,59,62,0.05,72,75,0.05</t>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4869,7 +4865,7 @@
   <dimension ref="A1:AK277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5004,100 +5000,100 @@
         <v>1230</v>
       </c>
       <c r="F2" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="G2" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="H2" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="I2" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="J2" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="K2" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="L2" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="M2" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="N2" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="O2" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="P2" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="Q2" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="R2" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="S2" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="T2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="U2" t="s">
         <v>1234</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1248</v>
       </c>
       <c r="V2" t="s">
         <v>1230</v>
       </c>
       <c r="W2" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="X2" t="s">
         <v>1230</v>
       </c>
       <c r="Y2" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="Z2" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="AA2" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="AB2" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="AC2" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="AD2" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="AE2" t="s">
         <v>1230</v>
       </c>
       <c r="AF2" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="AG2" t="s">
         <v>1230</v>
       </c>
       <c r="AH2" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="AI2" t="s">
         <v>1230</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="AK2" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -46482,7 +46478,7 @@
         <v>30</v>
       </c>
       <c r="AM12" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="AT12" t="s">
         <v>31</v>
@@ -70393,7 +70389,7 @@
         <v>786</v>
       </c>
       <c r="AM173" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="AT173">
         <v>11</v>
@@ -72094,7 +72090,7 @@
         <v>827</v>
       </c>
       <c r="AM182" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="AT182">
         <v>18</v>
